--- a/Stages/WorldMap.xlsx
+++ b/Stages/WorldMap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakaguti\source\repos\Game2\Stages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sakaguti\source\repos\lovecall6700\Game2\Stages\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>S</t>
+    <t>S3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1152,6 +1152,476 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線矢印コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="600076" y="2552700"/>
+          <a:ext cx="1304924" cy="3962400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1924050" y="6886575"/>
+          <a:ext cx="619125" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4953000" y="5705475"/>
+          <a:ext cx="971550" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="6734176"/>
+          <a:ext cx="1257300" cy="2000249"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3276600" y="6981826"/>
+          <a:ext cx="1800225" cy="1695449"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直線矢印コネクタ 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="628650" y="7981950"/>
+          <a:ext cx="5448301" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="666752" y="8239125"/>
+          <a:ext cx="7696198" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="647701" y="8429625"/>
+          <a:ext cx="4705349" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="7810500"/>
+          <a:ext cx="619125" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="7810500"/>
+          <a:ext cx="619125" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1426,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:AH26"/>
+  <dimension ref="C6:AH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="AC21" sqref="AC21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AE33" sqref="AE33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" customHeight="1"/>
@@ -1437,10 +1907,14 @@
     <col min="3" max="4" width="3.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="3.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1638,7 +2112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="3:24" ht="18.75" customHeight="1">
+    <row r="17" spans="3:33" ht="18.75" customHeight="1">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="H17" s="6">
@@ -1660,11 +2134,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="3:24" ht="18.75" customHeight="1">
+    <row r="18" spans="3:33" ht="18.75" customHeight="1">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="3:24" ht="18.75" customHeight="1">
+    <row r="19" spans="3:33" ht="18.75" customHeight="1">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="6">
@@ -1686,7 +2160,7 @@
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
     </row>
-    <row r="20" spans="3:24" ht="18.75" customHeight="1">
+    <row r="20" spans="3:33" ht="18.75" customHeight="1">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20">
@@ -1708,11 +2182,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:24" ht="18.75" customHeight="1">
+    <row r="21" spans="3:33" ht="18.75" customHeight="1">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="3:24" ht="18.75" customHeight="1">
+    <row r="22" spans="3:33" ht="18.75" customHeight="1">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="6">
@@ -1728,7 +2202,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="3:24" ht="18.75" customHeight="1">
+    <row r="23" spans="3:33" ht="18.75" customHeight="1">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23">
@@ -1747,11 +2221,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="3:24" ht="18.75" customHeight="1">
+    <row r="24" spans="3:33" ht="18.75" customHeight="1">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="3:24" ht="18.75" customHeight="1">
+      <c r="Y24" s="6">
+        <v>19</v>
+      </c>
+      <c r="AG24" s="2"/>
+    </row>
+    <row r="25" spans="3:33" ht="18.75" customHeight="1">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="M25" s="7">
@@ -1761,14 +2239,144 @@
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
-    </row>
-    <row r="26" spans="3:24" ht="18.75" customHeight="1">
+      <c r="Y25" s="1"/>
+      <c r="AG25" s="2"/>
+    </row>
+    <row r="26" spans="3:33" ht="18.75" customHeight="1">
       <c r="M26">
         <v>10</v>
       </c>
       <c r="Q26">
         <v>1</v>
       </c>
+      <c r="Y26" s="1"/>
+      <c r="AG26" s="2"/>
+    </row>
+    <row r="27" spans="3:33" ht="18.75" customHeight="1">
+      <c r="Y27" s="1"/>
+      <c r="AG27" s="2"/>
+    </row>
+    <row r="28" spans="3:33" ht="18.75" customHeight="1">
+      <c r="Y28" s="1"/>
+      <c r="AG28" s="2"/>
+    </row>
+    <row r="29" spans="3:33" ht="18.75" customHeight="1">
+      <c r="C29" s="6">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="K29" s="6">
+        <v>18</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="AG29" s="2"/>
+    </row>
+    <row r="30" spans="3:33" ht="18.75" customHeight="1">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="AG30" s="2"/>
+    </row>
+    <row r="31" spans="3:33" ht="18.75" customHeight="1">
+      <c r="Y31" s="1"/>
+      <c r="AG31" s="2"/>
+    </row>
+    <row r="32" spans="3:33" ht="18.75" customHeight="1">
+      <c r="Y32" s="1"/>
+      <c r="AG32" s="2"/>
+    </row>
+    <row r="33" spans="3:34" ht="18.75" customHeight="1">
+      <c r="C33" s="6">
+        <v>22</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="O33" s="7">
+        <v>23</v>
+      </c>
+      <c r="R33" s="7">
+        <v>24</v>
+      </c>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="Y33" s="1"/>
+      <c r="AG33" s="2"/>
+    </row>
+    <row r="36" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y36" s="2"/>
+    </row>
+    <row r="37" spans="3:34" ht="18.75" customHeight="1">
+      <c r="M37" s="6">
+        <v>20</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="Y37" s="6">
+        <v>21</v>
+      </c>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+    </row>
+    <row r="38" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y38" s="2"/>
+    </row>
+    <row r="39" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y39" s="2"/>
+    </row>
+    <row r="40" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y40" s="2"/>
+    </row>
+    <row r="41" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y41" s="2"/>
+    </row>
+    <row r="42" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y42" s="2"/>
+    </row>
+    <row r="43" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y43" s="2"/>
+    </row>
+    <row r="44" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y44" s="2"/>
+    </row>
+    <row r="45" spans="3:34" ht="18.75" customHeight="1">
+      <c r="Y45" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
